--- a/dataset_v1/task_sheet_answers/ShippingCosts/4_ShippingCosts/4_ShippingCosts_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/ShippingCosts/4_ShippingCosts/4_ShippingCosts_gt1.xlsx
@@ -1,137 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ActionTransformer\Excel_data\example_sheets_part1\task_sheet_answers\ShippingCosts\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E08919-5ACD-4798-8C51-143614D29823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{B86D2C49-75B5-41F0-9A15-CC4FF61EE731}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="11520" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Customers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chandler</t>
-  </si>
-  <si>
-    <t>Glendale</t>
-  </si>
-  <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>Scottsdale</t>
-  </si>
-  <si>
-    <t>Little Rock</t>
-  </si>
-  <si>
-    <t>Antioch</t>
-  </si>
-  <si>
-    <t>Berkeley</t>
-  </si>
-  <si>
-    <t>Chula Vista</t>
-  </si>
-  <si>
-    <t>Concord</t>
-  </si>
-  <si>
-    <t>Daly City</t>
-  </si>
-  <si>
-    <t>Fairfield</t>
-  </si>
-  <si>
-    <t>Hayward</t>
-  </si>
-  <si>
-    <t>Huntington Beach</t>
-  </si>
-  <si>
-    <t>Long Beach</t>
-  </si>
-  <si>
-    <t>Modesto</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sunnyvale</t>
-  </si>
-  <si>
-    <t>Thousand Oaks</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Milwaukee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birmingham</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oakland</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -147,19 +58,20 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 6" xfId="1" xr:uid="{B0D2FA52-3785-4DF5-84CC-22B44901A1E3}"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 6" xfId="1"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -219,15 +131,75 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -527,354 +499,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE94FDE-E735-4AA7-9EB5-E25422A56DEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="1" width="11.5546875"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13.21875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="11.44140625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Customers</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Birmingham</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>Oakland</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Chandler</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1447</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1686</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Glendale</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1405</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1870</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1715</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>Mesa</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1816</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1702</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Scottsdale</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1706</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Little Rock</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2277</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>743</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>373</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Antioch</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>796</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2146</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2299</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Berkeley</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>795</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2165</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2319</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Chula Vista</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1258</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2124</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Concord</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>785</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2155</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2319</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Daly City</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>813</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2183</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2329</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Fairfield</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>759</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2129</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2339</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Hayward</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>816</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2186</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2306</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1447</v>
-      </c>
-      <c r="C2">
-        <v>1830</v>
-      </c>
-      <c r="D2">
-        <v>1686</v>
-      </c>
-      <c r="E2">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1405</v>
-      </c>
-      <c r="C3">
-        <v>1870</v>
-      </c>
-      <c r="D3">
-        <v>1715</v>
-      </c>
-      <c r="E3">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1440</v>
-      </c>
-      <c r="C4">
-        <v>1816</v>
-      </c>
-      <c r="D4">
-        <v>1702</v>
-      </c>
-      <c r="E4">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1435</v>
-      </c>
-      <c r="C5">
-        <v>1818</v>
-      </c>
-      <c r="D5">
-        <v>1706</v>
-      </c>
-      <c r="E5">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2277</v>
-      </c>
-      <c r="C6">
-        <v>743</v>
-      </c>
-      <c r="D6">
-        <v>373</v>
-      </c>
-      <c r="E6">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>796</v>
-      </c>
-      <c r="C7">
-        <v>2146</v>
-      </c>
-      <c r="D7">
-        <v>2299</v>
-      </c>
-      <c r="E7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>795</v>
-      </c>
-      <c r="C8">
-        <v>2165</v>
-      </c>
-      <c r="D8">
-        <v>2319</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1258</v>
-      </c>
-      <c r="C9">
-        <v>2124</v>
-      </c>
-      <c r="D9">
-        <v>1996</v>
-      </c>
-      <c r="E9">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>785</v>
-      </c>
-      <c r="C10">
-        <v>2155</v>
-      </c>
-      <c r="D10">
-        <v>2319</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>813</v>
-      </c>
-      <c r="C11">
-        <v>2183</v>
-      </c>
-      <c r="D11">
-        <v>2329</v>
-      </c>
-      <c r="E11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>759</v>
-      </c>
-      <c r="C12">
-        <v>2129</v>
-      </c>
-      <c r="D12">
-        <v>2339</v>
-      </c>
-      <c r="E12">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>816</v>
-      </c>
-      <c r="C13">
-        <v>2186</v>
-      </c>
-      <c r="D13">
-        <v>2306</v>
-      </c>
-      <c r="E13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Huntington Beach</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>1162</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0" t="n">
         <v>2063</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0" t="n">
         <v>2034</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Long Beach</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1156</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0" t="n">
         <v>2071</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0" t="n">
         <v>2042</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Modesto</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>822</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0" t="n">
         <v>2158</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0" t="n">
         <v>2248</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="n">
         <v>834</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0" t="n">
         <v>2204</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0" t="n">
         <v>2290</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Sunnyvale</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="n">
         <v>835</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0" t="n">
         <v>2205</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0" t="n">
         <v>2293</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Thousand Oaks</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="n">
         <v>1143</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0" t="n">
         <v>2092</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0" t="n">
         <v>2062</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0" t="n">
         <v>385</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule dxfId="1" priority="2" type="expression">
       <formula>$D2&gt;1.5*$B2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>$B2&lt;2*$E2</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>